--- a/R4-1/templates/Provar Regression RWH/Provar Regression RWH_Test1_Create1.xlsx
+++ b/R4-1/templates/Provar Regression RWH/Provar Regression RWH_Test1_Create1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Incapsulate\Provar\R4-1\R4-1\templates\Provar Regression RWH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Incapsulate\git\Jenkins-Provar-test\R4-1\templates\Provar Regression RWH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0CDD5201-1C76-4B5F-8C04-222626FC3726}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -69,9 +70,6 @@
     <t>ndanak@incapsulate.com</t>
   </si>
   <si>
-    <t>Animal size</t>
-  </si>
-  <si>
     <t>singlePicklistMatrix</t>
   </si>
   <si>
@@ -126,9 +124,6 @@
     <t>dateTime</t>
   </si>
   <si>
-    <t>01/12/2018, 1:00 pm</t>
-  </si>
-  <si>
     <t>This is a time related question to test</t>
   </si>
   <si>
@@ -196,12 +191,18 @@
   </si>
   <si>
     <t>Provar Regression RWH</t>
+  </si>
+  <si>
+    <t>Animal Size</t>
+  </si>
+  <si>
+    <t>01/12/2018, 01:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -606,24 +607,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:K16"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="26.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="8" width="26.21875" style="3"/>
-    <col min="9" max="9" width="30.44140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" style="6"/>
-    <col min="11" max="11" width="26.21875" style="7"/>
-    <col min="12" max="16384" width="26.21875" style="3"/>
+    <col min="1" max="1" width="29.453125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="26.1796875" style="3"/>
+    <col min="9" max="9" width="30.453125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" style="6"/>
+    <col min="11" max="11" width="26.1796875" style="7"/>
+    <col min="12" max="16384" width="26.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8">
+    <row r="1" spans="1:11" ht="14">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -658,9 +659,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6">
+    <row r="2" spans="1:11" ht="28">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -684,13 +685,13 @@
         <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -703,16 +704,16 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="26.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -722,13 +723,13 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -741,16 +742,16 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="26.4">
+    </row>
+    <row r="6" spans="1:11" ht="25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -760,13 +761,13 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -779,13 +780,13 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -798,16 +799,16 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="92.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="87.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -817,13 +818,13 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -836,13 +837,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -855,16 +856,16 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="39.6">
+    </row>
+    <row r="12" spans="1:11" ht="37.5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -874,62 +875,62 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="25">
+      <c r="I13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="26.4">
-      <c r="I13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="I14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="I15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="26.4">
+    </row>
+    <row r="16" spans="1:11" ht="25">
       <c r="I16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
